--- a/data/case1/9/Plm2_6.xlsx
+++ b/data/case1/9/Plm2_6.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.4001054349591584</v>
+        <v>-0.35038893185310371</v>
       </c>
       <c r="B1" s="0">
-        <v>0.39880382460080455</v>
+        <v>0.3493729848110263</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.2413185416037944</v>
+        <v>-0.22451933514038558</v>
       </c>
       <c r="B2" s="0">
-        <v>0.23827974579677047</v>
+        <v>0.22187204317006781</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.13532576891296344</v>
+        <v>-0.11892048941767897</v>
       </c>
       <c r="B3" s="0">
-        <v>0.13437781743427735</v>
+        <v>0.1181532464354369</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.19637675694800727</v>
+        <v>-0.18015138600264535</v>
       </c>
       <c r="B4" s="0">
-        <v>0.19494040170790328</v>
+        <v>0.17894941172827217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.18894040180370553</v>
+        <v>-0.17294941188288071</v>
       </c>
       <c r="B5" s="0">
-        <v>0.1860209354319009</v>
+        <v>0.17051819492469633</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.085008637364115014</v>
+        <v>-0.069531305379319175</v>
       </c>
       <c r="B6" s="0">
-        <v>0.084901665074653021</v>
+        <v>0.069463608093902174</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.064901665194931013</v>
+        <v>-0.04946360828808416</v>
       </c>
       <c r="B7" s="0">
-        <v>0.064669037044119193</v>
+        <v>0.049338281854980792</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.068814173963053449</v>
+        <v>-0.068797857938643681</v>
       </c>
       <c r="B8" s="0">
-        <v>0.068406944203435849</v>
+        <v>0.068395210591020827</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.062406944306701462</v>
+        <v>-0.062395210756493569</v>
       </c>
       <c r="B9" s="0">
-        <v>0.062060111176800881</v>
+        <v>0.062052297970669912</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.056060111281851732</v>
+        <v>-0.05605229813897239</v>
       </c>
       <c r="B10" s="0">
-        <v>0.056007339344319007</v>
+        <v>0.056000944537458963</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.051507339447429246</v>
+        <v>-0.051500944702599583</v>
       </c>
       <c r="B11" s="0">
-        <v>0.051422093352666565</v>
+        <v>0.051417040309488016</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.045422093458311608</v>
+        <v>-0.045417040478946902</v>
       </c>
       <c r="B12" s="0">
-        <v>0.045162390796446683</v>
+        <v>0.045160253778523618</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.03916239090398399</v>
+        <v>-0.039160253950949908</v>
       </c>
       <c r="B13" s="0">
-        <v>0.039091456767201826</v>
+        <v>0.039090170664909607</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027091456883928444</v>
+        <v>-0.027090170852485329</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027056853364298306</v>
+        <v>0.027056060816157412</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021056853472847692</v>
+        <v>-0.021056060990221503</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021029582844400707</v>
+        <v>0.021029187641252278</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015029582953375531</v>
+        <v>-0.015029187815982503</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015005049429034578</v>
+        <v>0.015004908327540978</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.009005049538567178</v>
+        <v>-0.0090049085031402853</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999998860124109</v>
+        <v>0.0089999998170604556</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.10140880074626679</v>
+        <v>-0.082358698790077511</v>
       </c>
       <c r="B18" s="0">
-        <v>0.10123535588273214</v>
+        <v>0.082252119222147257</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.092235355977462685</v>
+        <v>-0.073252119375805336</v>
       </c>
       <c r="B19" s="0">
-        <v>0.090862240942613415</v>
+        <v>0.072439365057083371</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.081862241040528083</v>
+        <v>-0.063439365214835952</v>
       </c>
       <c r="B20" s="0">
-        <v>0.081545757010715647</v>
+        <v>0.063262066135066242</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090044923332444071</v>
+        <v>-0.0090044366559456357</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999999011967091</v>
+        <v>0.0089999998411296467</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093953976981014264</v>
+        <v>-0.093951553909791485</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093638387799055423</v>
+        <v>0.093636870780676063</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084638387897191691</v>
+        <v>-0.084636870939632125</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084127748309287931</v>
+        <v>0.084127414340007256</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042127748456553427</v>
+        <v>-0.042127414579925748</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999851903169</v>
+        <v>0.041999999758715489</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.095012298167567621</v>
+        <v>-0.094986889705857891</v>
       </c>
       <c r="B25" s="0">
-        <v>0.094758545939271244</v>
+        <v>0.094735788406676846</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.088758546039553465</v>
+        <v>-0.088735788567870344</v>
       </c>
       <c r="B26" s="0">
-        <v>0.088433148505021819</v>
+        <v>0.088413403179487204</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.08243314860586537</v>
+        <v>-0.082413403341683455</v>
       </c>
       <c r="B27" s="0">
-        <v>0.08132621573242993</v>
+        <v>0.081315187857679216</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.075326215835646693</v>
+        <v>-0.075315188023672874</v>
       </c>
       <c r="B28" s="0">
-        <v>0.074559014213286368</v>
+        <v>0.074554077432647858</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062559014326778239</v>
+        <v>-0.062554077615535775</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062177778670621464</v>
+        <v>0.062176068958368802</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042177778796428367</v>
+        <v>-0.042176069161545371</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042021743709963921</v>
+        <v>0.042021293478979427</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027021743829802602</v>
+        <v>-0.027021293672179425</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027001153919893994</v>
+        <v>0.027001055806827878</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060011540485582771</v>
+        <v>-0.006001056014597772</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999998928201848</v>
+        <v>0.0059999998276758504</v>
       </c>
     </row>
   </sheetData>
